--- a/data/balance_sheet/3digits/total/454_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/454_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>454-Sale, maintenance and repair of motorcycles and related parts and accessories</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>454-Sale, maintenance and repair of motorcycles and related parts and accessories</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>248018.29094</v>
@@ -1490,32 +940,37 @@
         <v>422686.58875</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>537693.9674</v>
+        <v>537693.9674000001</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>728830.2906599999</v>
+        <v>732056.5735800001</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>836517.3380400001</v>
+        <v>840523.42748</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>1020923.40939</v>
+        <v>1021188.00298</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>1146839.73834</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>1007617.60199</v>
+        <v>1020072.89452</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>1139268.93613</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>1150776.65241</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>1742985.148</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>26678.67911</v>
@@ -1530,32 +985,37 @@
         <v>20581.60688</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>55334.55367</v>
+        <v>55334.55366999999</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>51493.00873</v>
+        <v>51450.71885</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>65737.75348999999</v>
+        <v>65846.97374</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>54091.75097</v>
+        <v>54356.27627</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>77390.356</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>70464.10919</v>
+        <v>71285.39637999999</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>86776.27903999999</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>88168.92287000001</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>142097.966</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>4874.0163</v>
@@ -1567,35 +1027,40 @@
         <v>6546.86976</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>6734.713760000001</v>
+        <v>6734.71376</v>
       </c>
       <c r="G7" s="22" t="n">
         <v>8064.26693</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>7730.683019999999</v>
+        <v>7733.224230000001</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>7631.838470000001</v>
+        <v>7654.54172</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>8837.180910000001</v>
+        <v>8874.575129999999</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>11312.18937</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>13157.22597</v>
+        <v>13739.33235</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>16512.45695</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>16872.54708</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>32297.615</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>13205.30373</v>
@@ -1613,10 +1078,10 @@
         <v>27101.3248</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>34427.23698</v>
+        <v>34427.23697999999</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>33966.1211</v>
+        <v>33971.8711</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>28170.99746</v>
@@ -1625,23 +1090,28 @@
         <v>24028.91688</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>28415.47005</v>
+        <v>28466.97005</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>27720.35157</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>27970.35157</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>20079.127</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>10713.5024</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>8538.111130000001</v>
+        <v>8538.111129999999</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>12874.61299</v>
@@ -1653,29 +1123,34 @@
         <v>33362.70573</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>24519.72562</v>
+        <v>24555.6972</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>27147.36096</v>
+        <v>27179.11378</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>29417.92648</v>
+        <v>29645.05756</v>
       </c>
       <c r="K9" s="22" t="n">
-        <v>56657.36672000001</v>
+        <v>56657.36672</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>44682.64238</v>
+        <v>44862.66011</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>64637.87654</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>65167.25312</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>124658.544</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>4157.82396</v>
@@ -1693,7 +1168,7 @@
         <v>19223.9209</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>22092.93594</v>
+        <v>22200.61411</v>
       </c>
       <c r="I10" s="22" t="n">
         <v>14373.24991</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>30989.20872</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>49292.342</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>2043.68064</v>
@@ -1733,10 +1213,10 @@
         <v>6030.17711</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>6908.299050000001</v>
+        <v>6935.17455</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>11365.68287</v>
+        <v>11414.69705</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>10108.68979</v>
@@ -1745,17 +1225,22 @@
         <v>7721.903230000001</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>6699.80364</v>
+        <v>6707.46672</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>8894.802699999998</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>9147.97982</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>14355.022</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>1565.18312</v>
@@ -1773,10 +1258,10 @@
         <v>1204.07518</v>
       </c>
       <c r="H12" s="33" t="n">
-        <v>1366.67896</v>
+        <v>1399.57496</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>269.49544</v>
+        <v>288.64794</v>
       </c>
       <c r="J12" s="33" t="n">
         <v>3229.86724</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>645.0991000000001</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>3820.045</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>470.97288</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>1295.994</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>12.65541</v>
@@ -1862,7 +1357,7 @@
         <v>191.69308</v>
       </c>
       <c r="K14" s="22" t="n">
-        <v>98.90864000000001</v>
+        <v>98.90864000000002</v>
       </c>
       <c r="L14" s="22" t="n">
         <v>26.54178</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>132.03755</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>471.18</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>962.98103</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>589.54668</v>
@@ -1933,10 +1438,10 @@
         <v>154.35488</v>
       </c>
       <c r="H16" s="21" t="n">
-        <v>0.7158199999999999</v>
+        <v>33.61182</v>
       </c>
       <c r="I16" s="22" t="n">
-        <v>16.3204</v>
+        <v>35.4729</v>
       </c>
       <c r="J16" s="21" t="n">
         <v>27.0025</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>42.08867000000001</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>2052.368</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,18 +1500,23 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>65622.00442</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>85795.62657000001</v>
+        <v>85795.62656999999</v>
       </c>
       <c r="E18" s="23" t="n">
         <v>96872.06834</v>
@@ -2013,10 +1528,10 @@
         <v>137996.12833</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>243958.14987</v>
+        <v>244714.06636</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>243190.0316</v>
+        <v>243569.4644</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>294742.15169</v>
@@ -2025,17 +1540,22 @@
         <v>336089.5748</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>201226.51762</v>
+        <v>206594.12758</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>283135.18368</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>285375.56697</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>438069.045</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>43168.08175</v>
@@ -2044,19 +1564,19 @@
         <v>54051.38139</v>
       </c>
       <c r="E19" s="22" t="n">
-        <v>57033.05624000001</v>
+        <v>57033.05624</v>
       </c>
       <c r="F19" s="21" t="n">
         <v>64545.65672</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>77309.23732000001</v>
+        <v>77309.23731999999</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>105083.28671</v>
+        <v>105307.48265</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>117621.13802</v>
+        <v>117899.98064</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>157409.3499</v>
@@ -2065,17 +1585,22 @@
         <v>166566.55434</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>137798.80615</v>
+        <v>142660.30608</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>168505.31961</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>170462.40286</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>218996.39</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>19283.74757</v>
@@ -2087,16 +1612,16 @@
         <v>35311.62716</v>
       </c>
       <c r="F20" s="21" t="n">
-        <v>36323.94256999999</v>
+        <v>36323.94257</v>
       </c>
       <c r="G20" s="22" t="n">
         <v>54461.13576</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>121183.14555</v>
+        <v>121712.60829</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>111391.94616</v>
+        <v>111483.83784</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>117413.46426</v>
@@ -2105,17 +1630,22 @@
         <v>134982.36294</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>53469.45469</v>
+        <v>53899.61372</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>101953.43314</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>101970.93314</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>200489.456</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>13.693</v>
@@ -2133,7 +1663,7 @@
         <v>3.8405</v>
       </c>
       <c r="H21" s="21" t="n">
-        <v>1302.0334</v>
+        <v>1305.8739</v>
       </c>
       <c r="I21" s="22" t="n">
         <v>1329.13774</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>271.27302</v>
@@ -2207,16 +1747,16 @@
         <v>1463.32973</v>
       </c>
       <c r="F23" s="21" t="n">
-        <v>928.22384</v>
+        <v>928.2238400000001</v>
       </c>
       <c r="G23" s="22" t="n">
         <v>1749.89383</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>3835.88925</v>
+        <v>3841.98756</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>949.3668299999999</v>
+        <v>958.0653300000001</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>1619.78206</v>
@@ -2225,20 +1765,25 @@
         <v>1475.99572</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>794.50306</v>
+        <v>870.45406</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>2573.45584</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>2579.78296</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>7915.319</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
-        <v>920.1198099999999</v>
+        <v>920.11981</v>
       </c>
       <c r="D24" s="22" t="n">
         <v>1084.95453</v>
@@ -2268,14 +1813,19 @@
         <v>2792.26155</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>3577.70336</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>3573.38545</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>3333.426</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>2425.2394</v>
@@ -2299,23 +1849,28 @@
         <v>6417.69497</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>9908.20448</v>
+        <v>9908.204479999999</v>
       </c>
       <c r="K25" s="22" t="n">
         <v>13947.20736</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>9366.337449999999</v>
+        <v>9383.190450000002</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>9640.29096</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>9960.54579</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>10505.936</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>432.76413</v>
@@ -2345,17 +1900,22 @@
         <v>7766.545810000001</v>
       </c>
       <c r="L26" s="22" t="n">
-        <v>2994.84528</v>
+        <v>3011.69828</v>
       </c>
       <c r="M26" s="22" t="n">
-        <v>3115.01923</v>
-      </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+        <v>3171.48323</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>3171.482</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>3729.63623</v>
@@ -2367,13 +1927,13 @@
         <v>2758.38632</v>
       </c>
       <c r="F27" s="33" t="n">
-        <v>4245.08374</v>
+        <v>4245.083739999999</v>
       </c>
       <c r="G27" s="23" t="n">
         <v>6179.553210000001</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>6671.691199999999</v>
+        <v>6950.307720000001</v>
       </c>
       <c r="I27" s="23" t="n">
         <v>14942.13018</v>
@@ -2385,17 +1945,22 @@
         <v>10638.31493</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>12880.41313</v>
+        <v>13109.11188</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>15542.40059</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>16092.92201</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>25547.782</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>2827.0325</v>
@@ -2413,7 +1978,7 @@
         <v>2098.1269</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>2325.69244</v>
+        <v>2419.84952</v>
       </c>
       <c r="I28" s="22" t="n">
         <v>4409.61858</v>
@@ -2425,17 +1990,22 @@
         <v>5994.48204</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>8089.67261</v>
+        <v>8225.74856</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>9110.512399999998</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>9550.68679</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>15592.788</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>54.31894</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>0</v>
@@ -2548,14 +2128,19 @@
         <v>5.902310000000001</v>
       </c>
       <c r="M31" s="22" t="n">
-        <v>40.15921</v>
-      </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+        <v>41.85414</v>
+      </c>
+      <c r="N31" s="22" t="n">
+        <v>325.102</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>901.63373</v>
@@ -2573,7 +2158,7 @@
         <v>2324.97745</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>2248.14944</v>
+        <v>2432.60888</v>
       </c>
       <c r="I32" s="22" t="n">
         <v>6479.1698</v>
@@ -2585,17 +2170,22 @@
         <v>4617.48325</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>4757.33021</v>
+        <v>4849.95301</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>6336.44004</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>6445.09214</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>9628.922</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0.97</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0.97</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>142452.41073</v>
@@ -2733,29 +2338,34 @@
         <v>318617.92988</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>403699.93889</v>
+        <v>405746.59462</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>478533.40828</v>
+        <v>481875.62804</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>610384.6843600001</v>
+        <v>610384.6843599998</v>
       </c>
       <c r="K36" s="23" t="n">
-        <v>679419.4233800001</v>
+        <v>679419.4233800002</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>676738.3043500001</v>
+        <v>682002.63815</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>706839.0755300001</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>713648.1140599999</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>1065799.707</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>3783.91641</v>
@@ -2770,10 +2380,10 @@
         <v>4627.11404</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>4562.820189999999</v>
+        <v>4562.82019</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>5923.04356</v>
+        <v>5923.043559999999</v>
       </c>
       <c r="I37" s="22" t="n">
         <v>16680.11771</v>
@@ -2785,17 +2395,22 @@
         <v>17922.85471</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>8803.82063</v>
+        <v>9281.219660000001</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>7511.222720000001</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>7849.150430000001</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>20143.284</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>1911.61279</v>
@@ -2807,7 +2422,7 @@
         <v>3313.43176</v>
       </c>
       <c r="F38" s="21" t="n">
-        <v>2808.794159999999</v>
+        <v>2808.79416</v>
       </c>
       <c r="G38" s="22" t="n">
         <v>2996.60192</v>
@@ -2825,17 +2440,22 @@
         <v>5646.22307</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>9378.45642</v>
+        <v>9385.55402</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>10380.34778</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>10423.80627</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>621.862</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>689.25656</v>
@@ -2865,17 +2485,22 @@
         <v>6022.74625</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>4799.233480000001</v>
+        <v>4873.360529999999</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>3271.6526</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>3292.50625</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>9095.012000000001</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>114871.72116</v>
@@ -2893,29 +2518,34 @@
         <v>245455.77189</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>309457.73635</v>
+        <v>311504.39208</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>369636.18508</v>
+        <v>372575.67304</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>460201.5553100001</v>
+        <v>460201.55531</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>523391.2293</v>
+        <v>523391.2292999999</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>540081.21234</v>
+        <v>544469.70747</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>544003.57802</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>549408.80239</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>646763.249</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>1849.69867</v>
@@ -2924,7 +2554,7 @@
         <v>3149.17411</v>
       </c>
       <c r="E41" s="22" t="n">
-        <v>972.0687199999999</v>
+        <v>972.06872</v>
       </c>
       <c r="F41" s="21" t="n">
         <v>325.43937</v>
@@ -2936,7 +2566,7 @@
         <v>1302.79525</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>1336.18354</v>
+        <v>1339.01398</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>4730.18668</v>
@@ -2945,17 +2575,22 @@
         <v>4228.130689999999</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>3156.77278</v>
+        <v>3227.74922</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>3248.26799</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>3522.79901</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>4722.304</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>404.46603</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0.08874</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>19750.67117</v>
@@ -3016,7 +2656,7 @@
         <v>83318.03793000001</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>86034.7102</v>
+        <v>86434.61156</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>122561.94853</v>
@@ -3025,17 +2665,22 @@
         <v>122214.03843</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>110518.8087</v>
+        <v>110765.04725</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>138424.09516</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>139151.13845</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>384453.996</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>10.71577</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>10.71577</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>4.578</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>10.71577</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>10.71577</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>4.578</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2038.81753</v>
@@ -3213,38 +2878,43 @@
         <v>1142.51867</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>1584.66461</v>
+        <v>1584.84499</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>4108.91955</v>
+        <v>4110.82439</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>5237.34615</v>
       </c>
       <c r="K48" s="46" t="n">
-        <v>7235.592110000001</v>
+        <v>7235.59211</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>8658.471300000001</v>
+        <v>8661.718349999999</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>8121.93703</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>8125.55585</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>6217.532</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
-        <v>829.17512</v>
+        <v>829.1751200000001</v>
       </c>
       <c r="D49" s="22" t="n">
         <v>649.8178200000001</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>797.19645</v>
+        <v>797.1964499999999</v>
       </c>
       <c r="F49" s="21" t="n">
         <v>1608.38486</v>
@@ -3253,29 +2923,34 @@
         <v>1085.05145</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>1474.05241</v>
+        <v>1474.23279</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>2280.47135</v>
+        <v>2282.37619</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>3774.61105</v>
       </c>
       <c r="K49" s="22" t="n">
-        <v>5718.893590000001</v>
+        <v>5718.89359</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>5758.98386</v>
+        <v>5762.23091</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>6608.75536</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>6611.96418</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>4519.796</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>1209.64241</v>
@@ -3308,17 +2983,22 @@
         <v>2899.48744</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>1513.18167</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>1513.59167</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>1697.736</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5920.84403</v>
+        <v>5920.844029999999</v>
       </c>
       <c r="D51" s="46" t="n">
         <v>7168.485949999999</v>
@@ -3333,29 +3013,34 @@
         <v>17204.56669</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>19422.35206</v>
+        <v>19576.65974</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>25545.40989</v>
+        <v>25699.56918</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>39014.85864</v>
+        <v>39014.92693000001</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>35540.52655</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>37344.17447</v>
+        <v>38114.29025</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>38198.24539</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>38709.75578</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>61428.493</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>5216.02905</v>
@@ -3364,7 +3049,7 @@
         <v>6732.48274</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>9690.634169999999</v>
+        <v>9690.634170000001</v>
       </c>
       <c r="F52" s="21" t="n">
         <v>13606.00669</v>
@@ -3373,29 +3058,34 @@
         <v>13783.63065</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>17508.17076</v>
+        <v>17509.68763</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>22585.94007</v>
+        <v>22734.80096</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>34504.54715000001</v>
+        <v>34504.61543999999</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>31141.83757</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>31639.34727</v>
+        <v>32383.38754</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>30781.13185</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>31193.4635</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>50411.476</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>3.08688</v>
@@ -3413,7 +3103,7 @@
         <v>545.3808200000001</v>
       </c>
       <c r="H53" s="21" t="n">
-        <v>102.57772</v>
+        <v>109.50122</v>
       </c>
       <c r="I53" s="22" t="n">
         <v>3e-05</v>
@@ -3425,17 +3115,22 @@
         <v>259.00428</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>1127.13199</v>
+        <v>1150.1661</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>1194.19481</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>1196.55635</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>1542.69</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>51.86017</v>
@@ -3444,7 +3139,7 @@
         <v>49.75545</v>
       </c>
       <c r="E54" s="22" t="n">
-        <v>57.72209</v>
+        <v>57.72208999999999</v>
       </c>
       <c r="F54" s="21" t="n">
         <v>82.44076</v>
@@ -3468,14 +3163,19 @@
         <v>89.21669</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>298.21274</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>299.8364</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>329.494</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>449.06272</v>
@@ -3484,7 +3184,7 @@
         <v>318.68118</v>
       </c>
       <c r="E55" s="22" t="n">
-        <v>277.4855899999999</v>
+        <v>277.48559</v>
       </c>
       <c r="F55" s="21" t="n">
         <v>394.84565</v>
@@ -3496,7 +3196,7 @@
         <v>959.76022</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>1494.26778</v>
+        <v>1499.56618</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>2499.40851</v>
@@ -3505,17 +3205,22 @@
         <v>1845.49396</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>3063.82368</v>
+        <v>3064.46508</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>2571.26719</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>2571.52127</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>3750.096</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>164.32776</v>
@@ -3545,17 +3250,22 @@
         <v>1915.51202</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>1171.4051</v>
+        <v>1173.8051</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>3073.681309999999</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>3168.62077</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>4916.432</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>35.64247</v>
@@ -3573,7 +3283,7 @@
         <v>116.94014</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>152.97942</v>
+        <v>298.84673</v>
       </c>
       <c r="I57" s="22" t="n">
         <v>291.3173</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>223.47547</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>314.398</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0.8349800000000001</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>39.7279</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>159.344</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>16.55412</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>4.563</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>43813.00371</v>
@@ -3732,29 +3462,34 @@
         <v>101978.87853</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>113343.06379</v>
+        <v>113740.06981</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>143985.48839</v>
+        <v>144407.769</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>188455.8486</v>
+        <v>188455.84861</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>213411.3671</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>222291.86485</v>
+        <v>223360.98433</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>247735.08241</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>249637.13316</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>380564.793</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>83.91336</v>
@@ -3775,7 +3510,7 @@
         <v>1408.2494</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>2418.52731</v>
+        <v>2418.527309999999</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>2069.79212</v>
@@ -3784,17 +3519,22 @@
         <v>2482.20868</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>12391.69753</v>
+        <v>12391.80753</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>3960.33404</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>3961.0616</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>5699.939</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>703.7127399999999</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>703.713</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>56</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>2827.08972</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>4467.079</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>27.91336</v>
@@ -3972,7 +3732,7 @@
         <v>67.91333999999999</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>861.2989600000001</v>
+        <v>861.29896</v>
       </c>
       <c r="I67" s="22" t="n">
         <v>1315.51427</v>
@@ -3984,17 +3744,22 @@
         <v>1314.02794</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>1223.76742</v>
+        <v>1223.87742</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>429.53158</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>430.2591399999999</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>529.147</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>186.70422</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>1285.91393</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>403.579</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>144.2</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>55.4209</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>391.079</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>31.84259</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>12.5</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>10.66163</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>1217.99303</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>1506.21851</v>
@@ -4387,14 +4197,19 @@
         <v>1591.70447</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>1740.25223</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>68740.25199999999</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>1776.15518</v>
@@ -4507,14 +4332,19 @@
         <v>1394.70223</v>
       </c>
       <c r="M80" s="22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+        <v>1740.25223</v>
+      </c>
+      <c r="N80" s="22" t="n">
+        <v>1740.252</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>194.88667</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>75.05</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>67000</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>35260.3621</v>
@@ -4806,16 +4671,16 @@
         <v>57303.15462</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>71594.46326999999</v>
+        <v>71594.46327000001</v>
       </c>
       <c r="G88" s="23" t="n">
         <v>87617.34116</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>97647.06523000001</v>
+        <v>97790.68347999999</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>123625.20929</v>
+        <v>123917.78615</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>140086.88812</v>
@@ -4824,17 +4689,22 @@
         <v>163328.54535</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>174560.89618</v>
+        <v>175319.10027</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>209980.12981</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>210882.5085</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>268090.123</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>2769.15414</v>
@@ -4867,14 +4737,19 @@
         <v>15842.92316</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>16823.32424</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>16963.32424</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>24646.227</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>218.12484</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>143.69318</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>143.693</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>15320.70589</v>
@@ -4935,7 +4815,7 @@
         <v>55578.6861</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>74398.31525</v>
+        <v>74468.70103</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>78643.52464</v>
@@ -4944,17 +4824,22 @@
         <v>89982.32811</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>95157.83177</v>
+        <v>95617.02326999999</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>124036.59804</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>124079.09804</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>139725.333</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>1502.86431</v>
@@ -4972,10 +4857,10 @@
         <v>2497.76179</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>2958.59146</v>
+        <v>2988.5169</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>3375.37328</v>
+        <v>3375.89872</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>3813.17154</v>
@@ -4984,17 +4869,22 @@
         <v>4330.62417</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>5106.58765</v>
+        <v>5305.508800000001</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>8201.707849999999</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>8234.056500000001</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>13848.139</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>14862.90855</v>
@@ -5012,10 +4902,10 @@
         <v>27859.83983</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>32894.33838</v>
+        <v>33093.07552</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>33995.71044</v>
+        <v>34095.98905</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>41876.72478</v>
@@ -5024,17 +4914,22 @@
         <v>56010.21344</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>54162.58844</v>
+        <v>54297.03714</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>65341.84264000001</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>65807.42692</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>97956.697</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>10516.28796</v>
@@ -5052,10 +4947,10 @@
         <v>14555.28103</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>15703.74546</v>
+        <v>15939.64943</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>18327.01059000001</v>
+        <v>18457.74186</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>22070.48717</v>
@@ -5064,17 +4959,22 @@
         <v>26169.5032</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>29979.19673</v>
+        <v>30215.45472</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>31943.97835</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>32489.89519</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>38901.566</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>42.35169</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>104.16892</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>103.923</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>11369.79408</v>
@@ -5132,10 +5037,10 @@
         <v>18179.30813</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>20667.73389</v>
+        <v>20988.68219</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>24958.20242</v>
+        <v>24968.80429</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>29792.54286</v>
@@ -5144,17 +5049,22 @@
         <v>33459.57296</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>34344.11852</v>
+        <v>34673.58716</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>39594.76583</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>39918.73691</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>55569.342</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>1359.92924</v>
@@ -5175,26 +5085,31 @@
         <v>1301.50283</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>1106.78839</v>
+        <v>1108.04602</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>1242.2313</v>
       </c>
       <c r="K97" s="22" t="n">
-        <v>4555.13201</v>
+        <v>4555.132009999999</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>5176.62695</v>
+        <v>5235.48034</v>
       </c>
       <c r="M97" s="22" t="n">
         <v>2030.4536</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>7327.372</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>37.82956</v>
@@ -5221,7 +5136,7 @@
         <v>2974.88512</v>
       </c>
       <c r="K98" s="22" t="n">
-        <v>2762.42171</v>
+        <v>2762.421710000001</v>
       </c>
       <c r="L98" s="22" t="n">
         <v>3208.4047</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>949.1288199999999</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>1006.515</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>3887.39864</v>
@@ -5252,29 +5172,34 @@
         <v>7192.19367</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>8496.487449999999</v>
+        <v>8516.985980000001</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>10512.82093</v>
+        <v>10552.49107</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>19586.36426</v>
+        <v>19586.36427</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>18937.40529</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>21645.10025</v>
+        <v>21760.10626</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>20277.71089</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>20362.98069</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>27668.204</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>522.08421</v>
@@ -5283,19 +5208,19 @@
         <v>723.95544</v>
       </c>
       <c r="E100" s="22" t="n">
-        <v>732.1491</v>
+        <v>732.1491000000001</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>703.1906000000001</v>
+        <v>703.1906</v>
       </c>
       <c r="G100" s="22" t="n">
         <v>1024.89184</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>1241.80931</v>
+        <v>1273.89738</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>2831.06354</v>
+        <v>2840.03925</v>
       </c>
       <c r="J100" s="21" t="n">
         <v>8856.829599999999</v>
@@ -5304,17 +5229,22 @@
         <v>7597.37119</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>7831.54175</v>
+        <v>7848.926820000001</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>8086.235769999999</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>8088.261689999999</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>13837.1</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>9.198879999999999</v>
@@ -5349,15 +5279,20 @@
       <c r="M101" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>630</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
-        <v>341.5618</v>
+        <v>341.5618000000001</v>
       </c>
       <c r="D102" s="22" t="n">
         <v>356.4037</v>
@@ -5366,16 +5301,16 @@
         <v>80.04797000000001</v>
       </c>
       <c r="F102" s="21" t="n">
-        <v>79.47693999999998</v>
+        <v>79.47694</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>96.97646999999999</v>
+        <v>96.97647000000001</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>93.11062999999999</v>
+        <v>96.35831</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>115.14878</v>
+        <v>119.16866</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>156.58424</v>
@@ -5384,17 +5319,22 @@
         <v>167.74824</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>143.59319</v>
+        <v>171.15372</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>173.51197</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>196.68355</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>224.858</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>51.39265</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>3.16925</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>4268.285879999999</v>
@@ -5446,35 +5391,40 @@
         <v>5764.24558</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>6610.52431</v>
+        <v>6610.524310000001</v>
       </c>
       <c r="G104" s="22" t="n">
         <v>8861.756870000001</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>10437.98974</v>
+        <v>10492.37069</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>11559.59743</v>
+        <v>11584.70507</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>15464.8492</v>
+        <v>15464.84921</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>18739.16674</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>23531.3885</v>
+        <v>23675.55933</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>23134.67952</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>23206.66898</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>24179.72</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>228.72558</v>
@@ -5489,13 +5439,13 @@
         <v>372.74571</v>
       </c>
       <c r="G105" s="22" t="n">
-        <v>422.87259</v>
+        <v>422.8725899999999</v>
       </c>
       <c r="H105" s="21" t="n">
-        <v>544.0994300000001</v>
+        <v>544.09943</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>669.42001</v>
+        <v>672.2954299999999</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>1041.76183</v>
@@ -5504,17 +5454,22 @@
         <v>1229.34282</v>
       </c>
       <c r="L105" s="22" t="n">
-        <v>1165.51033</v>
+        <v>1184.51033</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>1410.48985</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>1429.48985</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>2582.812</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>1533.85036</v>
@@ -5532,29 +5487,34 @@
         <v>3271.1207</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>3884.18279</v>
+        <v>3953.40096</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>5343.61883</v>
+        <v>5344.92734</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>6569.870609999999</v>
       </c>
       <c r="K106" s="22" t="n">
-        <v>9428.35331</v>
+        <v>9428.353309999999</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>11657.8896</v>
+        <v>11751.00002</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>13181.28142</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>13212.19858</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>13809.077</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>20.90595</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>22.791</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>2883.58887</v>
@@ -5852,29 +5847,34 @@
         <v>2871.7499</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>4487.25584</v>
+        <v>4720.14508</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>5564.19605</v>
+        <v>5654.229659999999</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>7200.327200000002</v>
+        <v>7200.327200000001</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>9101.0335</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>7822.92048</v>
+        <v>8018.71986</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>8659.748680000001</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>8833.171149999998</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>8321.734</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>2806.32051</v>
@@ -5892,29 +5892,34 @@
         <v>2871.7499</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>4380.586439999999</v>
+        <v>4613.47568</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>5461.72465</v>
+        <v>5551.75826</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>7163.54952</v>
+        <v>7163.549520000001</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>9101.0335</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>7031.47428</v>
+        <v>7227.27366</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>7907.590679999999</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>8081.01315</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>7569.577</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>77.26836</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>752.158</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>752.157</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>4.81801</v>
@@ -5984,23 +5994,28 @@
         <v>1552.1259</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>3380.3159</v>
+        <v>3380.315900000001</v>
       </c>
       <c r="M117" s="23" t="n">
         <v>2571.24506</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>1640.962</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>1.45346</v>
       </c>
       <c r="D118" s="22" t="n">
-        <v>79.15534</v>
+        <v>79.15534000000001</v>
       </c>
       <c r="E118" s="22" t="n">
         <v>1.35008</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>31.532</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>1.06104</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>68.20578</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>64.099</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>3.92706</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>198.74708</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>185.225</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0.56251</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>11.92122</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>2315.15238</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>1359.045</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>291831.29465</v>
@@ -6363,35 +6423,38 @@
         <v>333441.17037</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>419372.27152</v>
+        <v>419372.2715199999</v>
       </c>
       <c r="F127" s="33" t="n">
         <v>503104.86953</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>639672.84593</v>
+        <v>639672.8459300001</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>842173.3544500001</v>
+        <v>845796.64339</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>980502.8264299999</v>
+        <v>984931.1964799999</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1209379.25799</v>
+        <v>1209643.85159</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>1360251.10544</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1229909.46684</v>
+        <v>1243433.87885</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>1387004.01854</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1400413.78557</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>2123549.941</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>454-Sale, maintenance and repair of motorcycles and related parts and accessories</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>166836.39919</v>
@@ -6501,32 +6578,37 @@
         <v>331416.1933400001</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>418894.6449600001</v>
+        <v>418894.64496</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>569550.5447999999</v>
+        <v>572725.99118</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>654599.92988</v>
+        <v>656946.9462799999</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>808277.37422</v>
+        <v>808277.3742300001</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>848994.88697</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>739189.8007900001</v>
+        <v>749769.31645</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>846964.5963499999</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>856569.3948600001</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>1365782.158</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>30653.76815</v>
@@ -6535,19 +6617,19 @@
         <v>40218.45414</v>
       </c>
       <c r="E133" s="23" t="n">
-        <v>60812.12829</v>
+        <v>60812.12829000001</v>
       </c>
       <c r="F133" s="33" t="n">
         <v>65677.88031000001</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>83712.15531999999</v>
+        <v>83712.15532000001</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>136557.89065</v>
+        <v>137640.17854</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>177750.62759</v>
+        <v>178256.9319</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>201647.02577</v>
@@ -6556,23 +6638,28 @@
         <v>209568.45631</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>161231.92304</v>
+        <v>161284.97691</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>119473.56832</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>119567.09254</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>165915.051</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>30130.72637</v>
       </c>
       <c r="D134" s="22" t="n">
-        <v>39272.72501</v>
+        <v>39272.72500999999</v>
       </c>
       <c r="E134" s="22" t="n">
         <v>59725.22817</v>
@@ -6584,10 +6671,10 @@
         <v>80239.87267</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>130971.91747</v>
+        <v>132054.20536</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>171203.62404</v>
+        <v>171709.92835</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>188968.15461</v>
@@ -6596,17 +6683,22 @@
         <v>195841.54004</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>154972.43786</v>
+        <v>155025.49172</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>112011.46916</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>112101.83811</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>149978.247</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>43.97195</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>283.6499</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>1534.54</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>7.368</v>
@@ -6681,15 +6778,20 @@
       <c r="M136" s="22" t="n">
         <v>37.68209</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>96.48099999999999</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
-        <v>468.7960400000001</v>
+        <v>468.79604</v>
       </c>
       <c r="D137" s="22" t="n">
         <v>380.04585</v>
@@ -6716,17 +6818,22 @@
         <v>11438.45372</v>
       </c>
       <c r="L137" s="22" t="n">
-        <v>5011.68285</v>
+        <v>5011.682849999999</v>
       </c>
       <c r="M137" s="22" t="n">
         <v>4795.85346</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>9890.468000000001</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>17.64179</v>
@@ -6910,26 +7037,31 @@
         <v>1865.48247</v>
       </c>
       <c r="J142" s="21" t="n">
-        <v>6124.205800000001</v>
+        <v>6124.2058</v>
       </c>
       <c r="K142" s="22" t="n">
         <v>1570.42689</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>998.9844000000001</v>
+        <v>998.9844099999999</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>2420.27789</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>2423.43316</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>4608.277</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
-        <v>71363.59201000001</v>
+        <v>71363.59200999999</v>
       </c>
       <c r="D143" s="46" t="n">
         <v>85809.12083</v>
@@ -6944,35 +7076,40 @@
         <v>157506.97281</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>204484.45355</v>
+        <v>204692.22251</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>231384.95787</v>
+        <v>232331.79941</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>286266.75726</v>
+        <v>286266.75727</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>317362.24533</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>292582.57018</v>
+        <v>297566.92366</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>365402.52049</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>369756.5376</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>592443.084</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>42850.69151</v>
       </c>
       <c r="D144" s="25" t="n">
-        <v>60420.24665</v>
+        <v>60420.24665000001</v>
       </c>
       <c r="E144" s="25" t="n">
         <v>68078.37132999999</v>
@@ -6984,29 +7121,34 @@
         <v>98067.65656</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>124700.14708</v>
+        <v>124907.91604</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>149912.60187</v>
+        <v>150415.14341</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>180185.62495</v>
+        <v>180185.62496</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>187163.95671</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>173271.77479</v>
+        <v>175012.45635</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>227898.75375</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>231932.14915</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>409938.69</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>25323.87935</v>
@@ -7027,7 +7169,7 @@
         <v>75394.25886</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>77087.14246999999</v>
+        <v>77531.44246999999</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>102063.09303</v>
@@ -7036,17 +7178,22 @@
         <v>110010.88302</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>107985.20452</v>
+        <v>111201.20452</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>131759.46622</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>131813.65132</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>148913.575</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>19.3247</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>132.19542</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>110.753</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>3169.69645</v>
@@ -7156,20 +7313,25 @@
         <v>20159.9056</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>10240.02445</v>
+        <v>10267.69637</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>5612.1051</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>5878.54171</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>33480.066</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
-        <v>46459.20584999999</v>
+        <v>46459.20585</v>
       </c>
       <c r="D149" s="23" t="n">
         <v>48714.17878</v>
@@ -7181,13 +7343,13 @@
         <v>77791.47919</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>96194.55124000002</v>
+        <v>96194.55124</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>109577.85357</v>
+        <v>109664.40937</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>143557.23705</v>
+        <v>144295.05808</v>
       </c>
       <c r="J149" s="33" t="n">
         <v>204129.94477</v>
@@ -7196,17 +7358,22 @@
         <v>187970.08616</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>185557.20384</v>
+        <v>189842.99218</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>232210.17966</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>236037.65625</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>341063.132</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>44607.36194</v>
@@ -7224,10 +7391,10 @@
         <v>79725.17556999999</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>106005.58207</v>
+        <v>106068.67537</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>133356.62913</v>
+        <v>134089.48218</v>
       </c>
       <c r="J150" s="21" t="n">
         <v>182774.94208</v>
@@ -7236,17 +7403,22 @@
         <v>163554.63535</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>179019.27936</v>
+        <v>182441.10488</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>222997.1209799999</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>226378.48422</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>327330.184</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>13.35446</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7313,20 +7490,25 @@
         <v>170.80541</v>
       </c>
       <c r="K152" s="22" t="n">
-        <v>345.3964100000001</v>
+        <v>345.3964099999999</v>
       </c>
       <c r="L152" s="22" t="n">
-        <v>149.466</v>
+        <v>320.2714099999999</v>
       </c>
       <c r="M152" s="22" t="n">
-        <v>158.67</v>
-      </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+        <v>329.47541</v>
+      </c>
+      <c r="N152" s="22" t="n">
+        <v>153.322</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>510.54587</v>
@@ -7344,10 +7526,10 @@
         <v>1273.41998</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>1104.62471</v>
+        <v>1106.80419</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>1383.81859</v>
+        <v>1387.00557</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>2225.33799</v>
@@ -7356,17 +7538,22 @@
         <v>2632.43829</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>2934.196</v>
+        <v>3021.09614</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>2649.51703</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>2775.64367</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>3521.236</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>1327.94358</v>
@@ -7375,7 +7562,7 @@
         <v>1198.5172</v>
       </c>
       <c r="E154" s="22" t="n">
-        <v>713.6315500000001</v>
+        <v>713.6315499999999</v>
       </c>
       <c r="F154" s="21" t="n">
         <v>707.7128899999999</v>
@@ -7384,10 +7571,10 @@
         <v>13764.79583</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>2444.24259</v>
+        <v>2465.52561</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>8816.789329999998</v>
+        <v>8818.57033</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>18958.85929</v>
@@ -7396,17 +7583,22 @@
         <v>21437.61611</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>3454.26248</v>
+        <v>4060.51975</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>6404.87165</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>6554.05295</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>10058.39</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>12485.24486</v>
@@ -7461,13 +7658,13 @@
         <v>47684.08995</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>71561.6924</v>
+        <v>71561.69239999999</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>107252.3512</v>
+        <v>107973.3512</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>86377.16900999998</v>
+        <v>86474.73078</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>96796.86049000001</v>
@@ -7476,17 +7673,22 @@
         <v>104521.57138</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>75335.71458</v>
+        <v>75717.54509</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>105406.21276</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>105544.34153</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>228284.128</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>11860.24486</v>
@@ -7504,29 +7706,34 @@
         <v>71327.69233000001</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>106473.67601</v>
+        <v>107194.67601</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>86288.72166</v>
+        <v>86386.28343000001</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>96102.39582000001</v>
+        <v>96102.39581999999</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>104233.84496</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>74909.48503</v>
+        <v>75291.31554000001</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>104212.41155</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>104350.54032</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>226399.144</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>625</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>1193.80121</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>1884.984</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>1081.87197</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>1081.87197</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,33 +7903,38 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>4984.53059</v>
       </c>
       <c r="D162" s="23" t="n">
-        <v>6206.448369999999</v>
+        <v>6206.44837</v>
       </c>
       <c r="E162" s="23" t="n">
         <v>7005.47158</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>6445.872979999999</v>
+        <v>6445.87298</v>
       </c>
       <c r="G162" s="23" t="n">
         <v>8537.54934</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>10342.26063</v>
+        <v>11412.35211</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>13112.18872</v>
+        <v>13169.13427</v>
       </c>
       <c r="J162" s="33" t="n">
         <v>16622.90443</v>
@@ -7716,23 +7943,28 @@
         <v>18852.69297</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>19133.26028</v>
+        <v>19902.72655</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>19322.22147</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>20263.34566</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>29803.993</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>2757.90056</v>
       </c>
       <c r="D163" s="22" t="n">
-        <v>3359.199360000001</v>
+        <v>3359.19936</v>
       </c>
       <c r="E163" s="22" t="n">
         <v>3607.94869</v>
@@ -7744,29 +7976,34 @@
         <v>4855.76136</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>6233.71532</v>
+        <v>6367.98361</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>7743.79052</v>
+        <v>7778.35116</v>
       </c>
       <c r="J163" s="21" t="n">
         <v>8320.029859999999</v>
       </c>
       <c r="K163" s="22" t="n">
-        <v>9822.921520000002</v>
+        <v>9822.92152</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>9093.683700000001</v>
+        <v>9310.50784</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>9755.07273</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>9971.594880000001</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>16528.257</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>1009.92636</v>
@@ -7784,10 +8021,10 @@
         <v>1934.0858</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>1856.69676</v>
+        <v>1897.05993</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>1829.44083</v>
+        <v>1841.22756</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>2682.17362</v>
@@ -7796,17 +8033,22 @@
         <v>3708.2229</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>3457.19126</v>
+        <v>3652.71708</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>3883.99614</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>4003.88177</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>3597.316</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>990.48929</v>
@@ -7824,10 +8066,10 @@
         <v>1534.34274</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>2061.43841</v>
+        <v>2956.89843</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>3430.5479</v>
+        <v>3441.14608</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>5542.14337</v>
@@ -7836,17 +8078,22 @@
         <v>5227.127390000001</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>5868.219609999999</v>
+        <v>6224.32292</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>5514.52046</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>6119.23687</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>9249.281000000001</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>226.21438</v>
@@ -7876,17 +8123,22 @@
         <v>94.42116</v>
       </c>
       <c r="L166" s="22" t="n">
-        <v>714.16571</v>
+        <v>715.1787099999999</v>
       </c>
       <c r="M166" s="22" t="n">
         <v>168.63214</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>429.139</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>738.698</v>
@@ -7901,13 +8153,13 @@
         <v>478.75788</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>722.4953600000001</v>
+        <v>722.49536</v>
       </c>
       <c r="H167" s="33" t="n">
         <v>721.3285</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>1609.54372</v>
+        <v>1611.08592</v>
       </c>
       <c r="J167" s="33" t="n">
         <v>1418.97616</v>
@@ -7916,17 +8168,22 @@
         <v>2364.82795</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>1839.57926</v>
+        <v>1869.33986</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>2249.62668</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>2270.40169</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>4370.283</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>969.81616</v>
@@ -7947,7 +8204,7 @@
         <v>6388.82067</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>6629.890600000001</v>
+        <v>6638.26948</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>4045.56189</v>
@@ -7956,23 +8213,28 @@
         <v>9010.94608</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>4113.50719</v>
+        <v>4117.29472</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>9648.69267</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>9657.911109999999</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>14388.844</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>453.88826</v>
       </c>
       <c r="D169" s="22" t="n">
-        <v>577.68685</v>
+        <v>577.6868499999999</v>
       </c>
       <c r="E169" s="22" t="n">
         <v>1002.48718</v>
@@ -7987,26 +8249,31 @@
         <v>5667.49217</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>5187.26169</v>
+        <v>5194.09837</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>2784.60618</v>
       </c>
       <c r="K169" s="22" t="n">
-        <v>6795.300450000001</v>
+        <v>6795.300449999999</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>2273.92793</v>
+        <v>2247.95486</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>7399.06599</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>7387.50942</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>10018.561</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>222.7701</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>143.11513</v>
@@ -8144,7 +8426,7 @@
         <v>147.52894</v>
       </c>
       <c r="H173" s="33" t="n">
-        <v>573.9430600000001</v>
+        <v>573.9430599999999</v>
       </c>
       <c r="I173" s="23" t="n">
         <v>539.25568</v>
@@ -8153,20 +8435,25 @@
         <v>1357.95698</v>
       </c>
       <c r="K173" s="23" t="n">
-        <v>8037.571750000001</v>
+        <v>8037.57175</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>2333.60198</v>
+        <v>2408.86457</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>978.7480400000001</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>980.8729199999999</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>1772.197</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>177.07789</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>143.11513</v>
@@ -8236,17 +8528,22 @@
         <v>7681.51484</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>2030.54912</v>
+        <v>2105.81171</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>801.67015</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>803.79503</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>1771.499</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>8.2446</v>
@@ -8264,7 +8561,7 @@
         <v>511.69955</v>
       </c>
       <c r="H176" s="33" t="n">
-        <v>40.46364</v>
+        <v>48.20589</v>
       </c>
       <c r="I176" s="23" t="n">
         <v>268.95024</v>
@@ -8279,14 +8576,19 @@
         <v>1175.94763</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>839.64696</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>1067.2747</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>2130.29</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>8.237360000000001</v>
@@ -8304,7 +8606,7 @@
         <v>511.57166</v>
       </c>
       <c r="H177" s="21" t="n">
-        <v>40.4564</v>
+        <v>48.19865</v>
       </c>
       <c r="I177" s="22" t="n">
         <v>1e-05</v>
@@ -8319,14 +8621,19 @@
         <v>1063.66049</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>817.4256899999999</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>818.3885</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>1807.2</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0.00724</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>6.40061</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>122.085</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>15.82066</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8479,20 +8801,25 @@
         <v>0</v>
       </c>
       <c r="M181" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+        <v>226.66493</v>
+      </c>
+      <c r="N181" s="35" t="n">
+        <v>197.505</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>38169.19814</v>
       </c>
       <c r="D182" s="23" t="n">
-        <v>40630.05201000001</v>
+        <v>40630.05201</v>
       </c>
       <c r="E182" s="23" t="n">
         <v>46670.55398</v>
@@ -8504,10 +8831,10 @@
         <v>66328.9489</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>82295.58283</v>
+        <v>86708.34679</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>108277.18283</v>
+        <v>110123.12138</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>141549.12355</v>
@@ -8516,17 +8843,22 @@
         <v>191649.56721</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>165758.02038</v>
+        <v>166337.35419</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>178751.74829</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>180577.38105</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>243254.96</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>22138.56563</v>
@@ -8541,32 +8873,37 @@
         <v>22959.74389</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>36660.63254000001</v>
+        <v>36660.63254</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>48038.21192</v>
+        <v>50115.83268</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>62687.75256</v>
+        <v>63519.69111000001</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>74868.10309999999</v>
       </c>
       <c r="K183" s="23" t="n">
-        <v>98148.69681000001</v>
+        <v>98148.69680999999</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>90096.70434</v>
+        <v>90254.82796000001</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>89711.82870999999</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>89751.82871</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>102939.83</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>22138.56563</v>
@@ -8584,10 +8921,10 @@
         <v>36571.37288</v>
       </c>
       <c r="H184" s="21" t="n">
-        <v>47832.99851999999</v>
+        <v>49910.61928</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>61647.88003</v>
+        <v>62479.81858</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>73889.25962000001</v>
@@ -8596,17 +8933,22 @@
         <v>97845.91818000001</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>89239.12995</v>
+        <v>89397.25357</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>85195.45752</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>85235.45752000001</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>97787.06299999999</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>0</v>
@@ -8627,7 +8969,7 @@
         <v>160.24199</v>
       </c>
       <c r="I185" s="22" t="n">
-        <v>857.9527099999999</v>
+        <v>857.95271</v>
       </c>
       <c r="J185" s="21" t="n">
         <v>1291.88328</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>90.71852</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>915.369</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>0</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>2.98768</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>191.242</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>4428.64035</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>4428.64</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>877.0444699999999</v>
@@ -8876,17 +9248,22 @@
         <v>9425.55106</v>
       </c>
       <c r="L191" s="23" t="n">
-        <v>6291.65836</v>
+        <v>6291.658359999999</v>
       </c>
       <c r="M191" s="23" t="n">
         <v>4123.74206</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>5980.615</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>517.0444699999999</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>1071.1016</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>55.001</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>360</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>3052.64046</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>5925.614</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>14334.12687</v>
@@ -9104,29 +9506,34 @@
         <v>28771.82815</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>32263.81856</v>
+        <v>34598.96176</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>39642.85504</v>
+        <v>40656.85504000001</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>49888.10938</v>
+        <v>49888.10937999999</v>
       </c>
       <c r="K197" s="23" t="n">
-        <v>77482.72123000001</v>
+        <v>77482.72123</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>69215.57906</v>
+        <v>69636.78925</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>84824.42677999999</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>86558.49816999999</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>132730.194</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>14314.59881</v>
@@ -9147,26 +9554,31 @@
         <v>31625.35626</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>38497.96276</v>
+        <v>39511.96276</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>44502.82917</v>
       </c>
       <c r="K198" s="22" t="n">
-        <v>71748.79766999999</v>
+        <v>71748.79767</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>64032.95841000001</v>
+        <v>64454.1686</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>81046.05224</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>82784.432</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>128067.696</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>16.20303</v>
@@ -9264,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="H201" s="21" t="n">
-        <v>0</v>
+        <v>2335.1432</v>
       </c>
       <c r="I201" s="22" t="n">
         <v>448.74586</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>3013.07255</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>3212.372</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>3.32503</v>
@@ -9344,7 +9776,7 @@
         <v>215.40933</v>
       </c>
       <c r="H203" s="21" t="n">
-        <v>638.4622999999999</v>
+        <v>638.4623</v>
       </c>
       <c r="I203" s="22" t="n">
         <v>696.1464199999999</v>
@@ -9359,14 +9791,19 @@
         <v>2935.22122</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>765.30199</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>760.99362</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>1450.126</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0.501</v>
@@ -9399,14 +9836,19 @@
         <v>91.65541</v>
       </c>
       <c r="M204" s="23" t="n">
-        <v>60.46021</v>
-      </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+        <v>112.02158</v>
+      </c>
+      <c r="N204" s="23" t="n">
+        <v>1540.797</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0.501</v>
@@ -9439,14 +9881,19 @@
         <v>91.65541</v>
       </c>
       <c r="M205" s="22" t="n">
-        <v>60.46021</v>
-      </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+        <v>112.02158</v>
+      </c>
+      <c r="N205" s="22" t="n">
+        <v>1540.797</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>818.9601700000001</v>
@@ -9636,17 +10103,22 @@
         <v>863.0384299999999</v>
       </c>
       <c r="L210" s="23" t="n">
-        <v>62.42321</v>
+        <v>62.42320999999999</v>
       </c>
       <c r="M210" s="23" t="n">
         <v>31.29053</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>63.281</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>758.149</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>5.67428</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>23.141</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>60.81117</v>
@@ -9713,20 +10190,25 @@
         <v>296.00704</v>
       </c>
       <c r="K212" s="22" t="n">
-        <v>752.6205999999999</v>
+        <v>752.6206</v>
       </c>
       <c r="L212" s="22" t="n">
-        <v>62.42321</v>
+        <v>62.42320999999999</v>
       </c>
       <c r="M212" s="22" t="n">
         <v>25.61625</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>40.14</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,15 +10378,20 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
-        <v>86825.69732000001</v>
+        <v>86825.69731999999</v>
       </c>
       <c r="D217" s="23" t="n">
         <v>95508.38900999998</v>
@@ -9904,29 +10406,34 @@
         <v>154449.25207</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>190327.22682</v>
+        <v>186362.30542</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>217625.71372</v>
+        <v>217861.12882</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>259552.76022</v>
+        <v>259817.35381</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>319606.65126</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>324961.6456699999</v>
+        <v>327327.20821</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>361287.6739</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>363267.00966</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>514512.823</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>102068.64411</v>
@@ -9944,29 +10451,34 @@
         <v>148966.51871</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>159516.72627</v>
+        <v>162029.70088</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>177930.46777</v>
+        <v>178356.90911</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>203046.8197</v>
+        <v>203346.8197</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>219257.08191</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>256150.57433</v>
+        <v>260179.14858</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>287056.20594</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>289835.5932</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>384455.409</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>104088.14487</v>
@@ -9984,29 +10496,34 @@
         <v>152662.02548</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>159689.05178</v>
+        <v>162199.05178</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>183235.76734</v>
+        <v>183649.76734</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>210072.90229</v>
+        <v>210372.90229</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>230805.82838</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>261529.06997</v>
+        <v>277263.06997</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>313875.65819</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>319563.11999</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>416448.933</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>15160.22082</v>
@@ -10036,17 +10553,22 @@
         <v>17865.21969</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>10797.36614</v>
+        <v>22791.30304</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>31510.8599</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>34909.5599</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>36958.66</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>13224.44289</v>
@@ -10064,29 +10586,34 @@
         <v>7429.12023</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>7205.69723</v>
+        <v>7208.67184</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>7326.960410000001</v>
+        <v>7339.40175</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>6863.440100000001</v>
+        <v>6863.4401</v>
       </c>
       <c r="K221" s="22" t="n">
-        <v>6316.474220000001</v>
+        <v>6316.47422</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>5418.871500000001</v>
+        <v>5707.38265</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>4691.40765</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>5182.03311</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>4965.136</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>83.72283</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>243.42881</v>
@@ -10135,19 +10667,19 @@
         <v>4596.47839</v>
       </c>
       <c r="E223" s="23" t="n">
-        <v>6096.47839</v>
+        <v>6096.478389999999</v>
       </c>
       <c r="F223" s="33" t="n">
         <v>4614.90268</v>
       </c>
       <c r="G223" s="23" t="n">
-        <v>4689.06747</v>
+        <v>4689.067470000001</v>
       </c>
       <c r="H223" s="33" t="n">
-        <v>5746.214889999999</v>
+        <v>5746.21489</v>
       </c>
       <c r="I223" s="23" t="n">
-        <v>5991.151890000001</v>
+        <v>5991.15189</v>
       </c>
       <c r="J223" s="33" t="n">
         <v>12167.14967</v>
@@ -10156,17 +10688,22 @@
         <v>11882.14753</v>
       </c>
       <c r="L223" s="23" t="n">
-        <v>32212.32036</v>
+        <v>32563.30036</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>28448.87395</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>28498.87394999999</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>27535.768</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>118.04681</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>8.584400000000002</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>8.584</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>125.382</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>26975.67862</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>26568.796</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>0</v>
@@ -10436,17 +11003,22 @@
         <v>4360.561650000001</v>
       </c>
       <c r="L230" s="22" t="n">
-        <v>4194.35892</v>
+        <v>4545.33892</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>1464.61093</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>1514.61093</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>958.388</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>7687.79463</v>
@@ -10458,35 +11030,40 @@
         <v>7046.24966</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>7788.703699999999</v>
+        <v>7788.7037</v>
       </c>
       <c r="G231" s="23" t="n">
         <v>10660.21007</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>13037.61781</v>
+        <v>13037.68231</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>14598.04839</v>
+        <v>14620.4019</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>24538.31533</v>
+        <v>24540.96387</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>26298.7808</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>24008.4282</v>
+        <v>25444.33615</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>24941.84388</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>25313.31932</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>28736.649</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>1105.80228</v>
@@ -10504,29 +11081,34 @@
         <v>1553.11973</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>2252.04449</v>
+        <v>2252.10899</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>3414.56665</v>
+        <v>3415.60221</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>3937.49845</v>
+        <v>3940.14699</v>
       </c>
       <c r="K232" s="22" t="n">
-        <v>4483.854310000001</v>
+        <v>4483.85431</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>3361.08173</v>
+        <v>3376.37709</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>3622.56423</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>3702.47149</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>4415.139</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>20.68417</v>
@@ -10544,10 +11126,10 @@
         <v>36.26441000000001</v>
       </c>
       <c r="H233" s="21" t="n">
-        <v>73.75843</v>
+        <v>73.75842999999999</v>
       </c>
       <c r="I233" s="22" t="n">
-        <v>78.05076000000001</v>
+        <v>78.05076</v>
       </c>
       <c r="J233" s="21" t="n">
         <v>100.02741</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>196.27427</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>294.614</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>4476.607349999999</v>
@@ -10587,7 +11174,7 @@
         <v>8316.179040000001</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>8239.14703</v>
+        <v>8260.464979999999</v>
       </c>
       <c r="J234" s="21" t="n">
         <v>10395.9794</v>
@@ -10596,17 +11183,22 @@
         <v>11425.92059</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>11782.85241</v>
+        <v>11783.0215</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>12586.19135</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>12877.75953</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>14445.44</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>2084.70083</v>
@@ -10676,17 +11273,22 @@
         <v>10263.40295</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>8720.87543</v>
+        <v>10141.31893</v>
       </c>
       <c r="M236" s="22" t="n">
         <v>8536.81403</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>9581.456</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>20207.45767</v>
@@ -10704,29 +11306,34 @@
         <v>39103.33246</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>47378.49034</v>
+        <v>47877.06659999999</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>61622.10407000001</v>
+        <v>61810.64396</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>85739.76381999999</v>
+        <v>85808.09500999999</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>99188.83379999999</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>86360.61924000001</v>
+        <v>87945.96790999999</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>96004.07374999998</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>97856.25719</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>120424.097</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-33490.88033</v>
@@ -10744,29 +11351,34 @@
         <v>-62268.06255</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-57116.2728</v>
+        <v>-63158.56724999999</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-65030.10076000001</v>
+        <v>-65406.1476</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-72755.80463</v>
+        <v>-72809.86009999999</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-83849.76815999999</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-72964.07483</v>
+        <v>-77290.62919999998</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-86182.51659</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-89216.80713</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-110791.442</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>-9890.74757</v>
@@ -10775,7 +11387,7 @@
         <v>-3380.72613</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>-5816.45509</v>
+        <v>-5816.455089999999</v>
       </c>
       <c r="F239" s="33" t="n">
         <v>5588.95973</v>
@@ -10784,32 +11396,37 @@
         <v>13298.18591</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>21764.45031</v>
+        <v>20830.20799</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>22514.04236</v>
+        <v>22488.16956</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>6816.51633</v>
+        <v>6764.185659999999</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>46829.57537999999</v>
+        <v>46829.57538</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-806.22163</v>
+        <v>-1514.91559</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>11019.19297</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>10979.77313</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>64152.342</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
-        <v>5062.425969999999</v>
+        <v>5062.42597</v>
       </c>
       <c r="D240" s="22" t="n">
         <v>6757.818560000001</v>
@@ -10827,26 +11444,31 @@
         <v>29246.80909</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>31257.87544</v>
+        <v>31296.79157</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>25745.07829</v>
+        <v>25745.17828</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>61002.06587</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>18049.34546</v>
+        <v>18216.18219</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>36516.92926999999</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>36863.2935</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>75325.35000000001</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>14953.17354</v>
@@ -10858,41 +11480,46 @@
         <v>15056.75936</v>
       </c>
       <c r="F241" s="21" t="n">
-        <v>6449.98761</v>
+        <v>6449.987609999999</v>
       </c>
       <c r="G241" s="22" t="n">
         <v>5233.28411</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>7482.35878</v>
+        <v>8416.601100000002</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>8743.83308</v>
+        <v>8808.622009999999</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>18928.56196</v>
+        <v>18980.99262</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>14172.49049</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>18855.56709</v>
+        <v>19731.09778</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>25497.7363</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>25883.52037</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>11173.008</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>291831.29465</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>333441.1703699999</v>
+        <v>333441.17037</v>
       </c>
       <c r="E242" s="47" t="n">
         <v>419372.2715200001</v>
@@ -10904,26 +11531,29 @@
         <v>639672.84593</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>842173.3544500001</v>
+        <v>845796.6433900001</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>980502.8264299999</v>
+        <v>984931.19648</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1209379.25799</v>
+        <v>1209643.85159</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>1360251.10544</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1229909.46684</v>
+        <v>1243433.87885</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>1387004.01854</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1400413.78557</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>2123549.941</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>320</v>
@@ -10960,26 +11593,29 @@
         <v>379</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>450</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>450</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>498</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>537</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>